--- a/Code/Results/Cases/Case_1_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_220/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9816720383993613</v>
+        <v>1.07473634099485</v>
       </c>
       <c r="D2">
-        <v>1.031014209819314</v>
+        <v>1.059642570943496</v>
       </c>
       <c r="E2">
-        <v>1.001236241847393</v>
+        <v>1.075668860352172</v>
       </c>
       <c r="F2">
-        <v>1.01860968636596</v>
+        <v>1.079433369458358</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052258637599544</v>
+        <v>1.043889337377061</v>
       </c>
       <c r="J2">
-        <v>1.004415104589304</v>
+        <v>1.079644324198238</v>
       </c>
       <c r="K2">
-        <v>1.042057736719663</v>
+        <v>1.062371517543477</v>
       </c>
       <c r="L2">
-        <v>1.012678380684369</v>
+        <v>1.078354821011359</v>
       </c>
       <c r="M2">
-        <v>1.02981570663327</v>
+        <v>1.082109432903752</v>
       </c>
       <c r="N2">
-        <v>1.005841489245843</v>
+        <v>1.081177542975535</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.995857101482202</v>
+        <v>1.077233049860598</v>
       </c>
       <c r="D3">
-        <v>1.037721211401449</v>
+        <v>1.060775531630486</v>
       </c>
       <c r="E3">
-        <v>1.012945028883763</v>
+        <v>1.077755799784539</v>
       </c>
       <c r="F3">
-        <v>1.029020428679355</v>
+        <v>1.081267253775401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055176323826714</v>
+        <v>1.044249853149942</v>
       </c>
       <c r="J3">
-        <v>1.016461346796242</v>
+        <v>1.081793032674017</v>
       </c>
       <c r="K3">
-        <v>1.047893161840303</v>
+        <v>1.063317941899768</v>
       </c>
       <c r="L3">
-        <v>1.02341491224158</v>
+        <v>1.080256013301498</v>
       </c>
       <c r="M3">
-        <v>1.039294979315956</v>
+        <v>1.083758918997577</v>
       </c>
       <c r="N3">
-        <v>1.017904838498438</v>
+        <v>1.083329302863809</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004572719833894</v>
+        <v>1.078841814042535</v>
       </c>
       <c r="D4">
-        <v>1.041855827471953</v>
+        <v>1.061504074847248</v>
       </c>
       <c r="E4">
-        <v>1.020148005131937</v>
+        <v>1.079100045852951</v>
       </c>
       <c r="F4">
-        <v>1.035429079621726</v>
+        <v>1.082447878520908</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056953302875594</v>
+        <v>1.044479355618377</v>
       </c>
       <c r="J4">
-        <v>1.023860173871335</v>
+        <v>1.083176597561029</v>
       </c>
       <c r="K4">
-        <v>1.051474029890674</v>
+        <v>1.063925208420019</v>
       </c>
       <c r="L4">
-        <v>1.030009194077205</v>
+        <v>1.081479688384748</v>
       </c>
       <c r="M4">
-        <v>1.045117914299217</v>
+        <v>1.084819790652232</v>
       </c>
       <c r="N4">
-        <v>1.025314172756635</v>
+        <v>1.084714832571658</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008136876418068</v>
+        <v>1.079516559801748</v>
       </c>
       <c r="D5">
-        <v>1.043549066684336</v>
+        <v>1.061809278131501</v>
       </c>
       <c r="E5">
-        <v>1.023095290832578</v>
+        <v>1.079663730452072</v>
       </c>
       <c r="F5">
-        <v>1.038052040862001</v>
+        <v>1.082942800105047</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057675848406643</v>
+        <v>1.044574941160556</v>
       </c>
       <c r="J5">
-        <v>1.026884980011565</v>
+        <v>1.08375665883538</v>
       </c>
       <c r="K5">
-        <v>1.052936683878564</v>
+        <v>1.064179288725443</v>
       </c>
       <c r="L5">
-        <v>1.032704924570188</v>
+        <v>1.081992592091469</v>
       </c>
       <c r="M5">
-        <v>1.047498272273055</v>
+        <v>1.085264262401969</v>
       </c>
       <c r="N5">
-        <v>1.028343274468535</v>
+        <v>1.085295717599552</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008729742648815</v>
+        <v>1.0796297612447</v>
       </c>
       <c r="D6">
-        <v>1.043830842741827</v>
+        <v>1.061860460422447</v>
       </c>
       <c r="E6">
-        <v>1.023585635641967</v>
+        <v>1.079758292331404</v>
       </c>
       <c r="F6">
-        <v>1.03848845980549</v>
+        <v>1.083025817573232</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057795784690094</v>
+        <v>1.044590937963787</v>
       </c>
       <c r="J6">
-        <v>1.027388073249096</v>
+        <v>1.083853961536873</v>
       </c>
       <c r="K6">
-        <v>1.053179866984583</v>
+        <v>1.064221879120111</v>
       </c>
       <c r="L6">
-        <v>1.03315327227624</v>
+        <v>1.08207862213761</v>
       </c>
       <c r="M6">
-        <v>1.047894158443026</v>
+        <v>1.085338802884009</v>
       </c>
       <c r="N6">
-        <v>1.028847082156168</v>
+        <v>1.085393158482042</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004620723584761</v>
+        <v>1.078850836174277</v>
       </c>
       <c r="D7">
-        <v>1.041878624197487</v>
+        <v>1.061508157197361</v>
       </c>
       <c r="E7">
-        <v>1.020187694289843</v>
+        <v>1.0791075834325</v>
       </c>
       <c r="F7">
-        <v>1.035464398941372</v>
+        <v>1.082454497201581</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056963051323462</v>
+        <v>1.044480636353989</v>
       </c>
       <c r="J7">
-        <v>1.023900917100537</v>
+        <v>1.08318435456404</v>
       </c>
       <c r="K7">
-        <v>1.051493737129017</v>
+        <v>1.063928608206402</v>
       </c>
       <c r="L7">
-        <v>1.030045505550627</v>
+        <v>1.081486547794827</v>
       </c>
       <c r="M7">
-        <v>1.045149978204725</v>
+        <v>1.084825735636799</v>
       </c>
       <c r="N7">
-        <v>1.025354973845897</v>
+        <v>1.084722600590503</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9865690380601901</v>
+        <v>1.075581543916737</v>
       </c>
       <c r="D8">
-        <v>1.033326113845179</v>
+        <v>1.060026413168421</v>
       </c>
       <c r="E8">
-        <v>1.005276202877329</v>
+        <v>1.076375444096447</v>
       </c>
       <c r="F8">
-        <v>1.022200664016311</v>
+        <v>1.080054403167011</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053269011993354</v>
+        <v>1.044011961049037</v>
       </c>
       <c r="J8">
-        <v>1.008574149603703</v>
+        <v>1.080371919236226</v>
       </c>
       <c r="K8">
-        <v>1.044072818483426</v>
+        <v>1.062692437712303</v>
       </c>
       <c r="L8">
-        <v>1.016385175830424</v>
+        <v>1.078998708241241</v>
       </c>
       <c r="M8">
-        <v>1.0330880812982</v>
+        <v>1.082668237572608</v>
       </c>
       <c r="N8">
-        <v>1.010006440581212</v>
+        <v>1.081906171281933</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9505958289337658</v>
+        <v>1.069766811359472</v>
       </c>
       <c r="D9">
-        <v>1.016450522860091</v>
+        <v>1.0573798006875</v>
       </c>
       <c r="E9">
-        <v>0.9756616323422788</v>
+        <v>1.071512459317589</v>
       </c>
       <c r="F9">
-        <v>0.9959132064661095</v>
+        <v>1.075777726862135</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045794681560517</v>
+        <v>1.043156882452229</v>
       </c>
       <c r="J9">
-        <v>0.97802246989825</v>
+        <v>1.075362345996952</v>
       </c>
       <c r="K9">
-        <v>1.029282223257187</v>
+        <v>1.060474176639483</v>
       </c>
       <c r="L9">
-        <v>0.9891623237311374</v>
+        <v>1.074563382491026</v>
       </c>
       <c r="M9">
-        <v>1.009072938875174</v>
+        <v>1.078815780375082</v>
       </c>
       <c r="N9">
-        <v>0.9794113739862509</v>
+        <v>1.076889483874053</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9226615040010078</v>
+        <v>1.065851387349169</v>
       </c>
       <c r="D10">
-        <v>1.003557988854086</v>
+        <v>1.055590497202012</v>
       </c>
       <c r="E10">
-        <v>0.9527844767930336</v>
+        <v>1.068235590441052</v>
       </c>
       <c r="F10">
-        <v>0.9756796956645605</v>
+        <v>1.072892912344655</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039950864209547</v>
+        <v>1.042566764339306</v>
       </c>
       <c r="J10">
-        <v>0.9543191539559652</v>
+        <v>1.071984156179742</v>
       </c>
       <c r="K10">
-        <v>1.017863298500501</v>
+        <v>1.058967531076202</v>
       </c>
       <c r="L10">
-        <v>0.9680619676009609</v>
+        <v>1.071569835152038</v>
       </c>
       <c r="M10">
-        <v>0.9905023974499804</v>
+        <v>1.076211676280578</v>
       </c>
       <c r="N10">
-        <v>0.9556743966165197</v>
+        <v>1.073506496639818</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9092384590316226</v>
+        <v>1.064146110568797</v>
       </c>
       <c r="D11">
-        <v>0.9974436650384033</v>
+        <v>1.054809584862449</v>
       </c>
       <c r="E11">
-        <v>0.9418363982265</v>
+        <v>1.066807901029307</v>
       </c>
       <c r="F11">
-        <v>0.9660257320310086</v>
+        <v>1.071635350898484</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037145733581443</v>
+        <v>1.042306380588758</v>
       </c>
       <c r="J11">
-        <v>0.9429433607407974</v>
+        <v>1.070511702902213</v>
       </c>
       <c r="K11">
-        <v>1.012413951649599</v>
+        <v>1.05830833070292</v>
       </c>
       <c r="L11">
-        <v>0.9579453827483191</v>
+        <v>1.070264430157263</v>
       </c>
       <c r="M11">
-        <v>0.9816181114100592</v>
+        <v>1.075075187911283</v>
       </c>
       <c r="N11">
-        <v>0.9442824484701645</v>
+        <v>1.072031952309742</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9040039703040693</v>
+        <v>1.063511157732891</v>
       </c>
       <c r="D12">
-        <v>0.9950749740140306</v>
+        <v>1.054518578750672</v>
       </c>
       <c r="E12">
-        <v>0.9375757795756009</v>
+        <v>1.066276230809535</v>
       </c>
       <c r="F12">
-        <v>0.9622744447901206</v>
+        <v>1.071166935971047</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036053745270947</v>
+        <v>1.042208923978909</v>
       </c>
       <c r="J12">
-        <v>0.9385104743981469</v>
+        <v>1.069963268186401</v>
       </c>
       <c r="K12">
-        <v>1.010297141951177</v>
+        <v>1.058062432261704</v>
       </c>
       <c r="L12">
-        <v>0.9540053052846564</v>
+        <v>1.069778124642323</v>
       </c>
       <c r="M12">
-        <v>0.9781619443280503</v>
+        <v>1.074651675157162</v>
       </c>
       <c r="N12">
-        <v>0.9398432669204486</v>
+        <v>1.071482738753728</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9051390349666932</v>
+        <v>1.063647427707205</v>
       </c>
       <c r="D13">
-        <v>0.9955878376664106</v>
+        <v>1.054581043422488</v>
       </c>
       <c r="E13">
-        <v>0.9384992361001697</v>
+        <v>1.0663903382495</v>
       </c>
       <c r="F13">
-        <v>0.963087225032897</v>
+        <v>1.071267472004248</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036290421803264</v>
+        <v>1.042229862309993</v>
       </c>
       <c r="J13">
-        <v>0.9394715486549837</v>
+        <v>1.070080977930289</v>
       </c>
       <c r="K13">
-        <v>1.010755738875889</v>
+        <v>1.058115225769921</v>
       </c>
       <c r="L13">
-        <v>0.9548594281673937</v>
+        <v>1.069882503749276</v>
       </c>
       <c r="M13">
-        <v>0.9789109671268916</v>
+        <v>1.074742582648968</v>
       </c>
       <c r="N13">
-        <v>0.9408057060129664</v>
+        <v>1.071600615658954</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.908811198163341</v>
+        <v>1.064093656841718</v>
       </c>
       <c r="D14">
-        <v>0.9972499843027069</v>
+        <v>1.054785549505068</v>
       </c>
       <c r="E14">
-        <v>0.9414884399597233</v>
+        <v>1.0667639810568</v>
       </c>
       <c r="F14">
-        <v>0.9657192462805779</v>
+        <v>1.071596658317209</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037056552696757</v>
+        <v>1.042298339910022</v>
       </c>
       <c r="J14">
-        <v>0.9425814570063469</v>
+        <v>1.07046639998952</v>
       </c>
       <c r="K14">
-        <v>1.012240986122952</v>
+        <v>1.058288026027574</v>
       </c>
       <c r="L14">
-        <v>0.9576236653079837</v>
+        <v>1.070224261198403</v>
       </c>
       <c r="M14">
-        <v>0.981335819575534</v>
+        <v>1.075040208370101</v>
       </c>
       <c r="N14">
-        <v>0.9439200307909004</v>
+        <v>1.071986585061717</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9110390096468016</v>
+        <v>1.064368388026186</v>
       </c>
       <c r="D15">
-        <v>0.9982605209125641</v>
+        <v>1.054911427245048</v>
       </c>
       <c r="E15">
-        <v>0.9433031174589677</v>
+        <v>1.066994012831503</v>
       </c>
       <c r="F15">
-        <v>0.9673178738156626</v>
+        <v>1.071799307437777</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037521643442328</v>
+        <v>1.042340433103899</v>
       </c>
       <c r="J15">
-        <v>0.944468623165566</v>
+        <v>1.070703671069286</v>
       </c>
       <c r="K15">
-        <v>1.013143205481336</v>
+        <v>1.058394355324379</v>
       </c>
       <c r="L15">
-        <v>0.9593013673655969</v>
+        <v>1.070434639844405</v>
       </c>
       <c r="M15">
-        <v>0.982808090214278</v>
+        <v>1.075223402779557</v>
       </c>
       <c r="N15">
-        <v>0.9458098769425264</v>
+        <v>1.072224193093632</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9235205878042941</v>
+        <v>1.065964348376961</v>
       </c>
       <c r="D16">
-        <v>1.003951203533253</v>
+        <v>1.055642192954474</v>
       </c>
       <c r="E16">
-        <v>0.9534862133169071</v>
+        <v>1.068330152759896</v>
       </c>
       <c r="F16">
-        <v>0.9762991702220302</v>
+        <v>1.072976192152588</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04013056442049</v>
+        <v>1.042583942060545</v>
       </c>
       <c r="J16">
-        <v>0.9550475812528119</v>
+        <v>1.072081670271113</v>
       </c>
       <c r="K16">
-        <v>1.018213013206981</v>
+        <v>1.059011134923024</v>
       </c>
       <c r="L16">
-        <v>0.9687100118094096</v>
+        <v>1.07165627371353</v>
       </c>
       <c r="M16">
-        <v>0.9910719741197355</v>
+        <v>1.076286910984287</v>
       </c>
       <c r="N16">
-        <v>0.9564038583636796</v>
+        <v>1.073604149212384</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9309651482892382</v>
+        <v>1.066962771309487</v>
       </c>
       <c r="D17">
-        <v>1.007367797501255</v>
+        <v>1.056098927796623</v>
       </c>
       <c r="E17">
-        <v>0.95957230697489</v>
+        <v>1.069165896212902</v>
       </c>
       <c r="F17">
-        <v>0.981675094900166</v>
+        <v>1.073712142026062</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041688239487231</v>
+        <v>1.042735382022407</v>
       </c>
       <c r="J17">
-        <v>0.9613615472823079</v>
+        <v>1.072943430020399</v>
       </c>
       <c r="K17">
-        <v>1.021247864131114</v>
+        <v>1.059396187519398</v>
       </c>
       <c r="L17">
-        <v>0.97432836273319</v>
+        <v>1.072420086198921</v>
       </c>
       <c r="M17">
-        <v>0.9960122405479453</v>
+        <v>1.076951616496309</v>
       </c>
       <c r="N17">
-        <v>0.9627267909491597</v>
+        <v>1.07446713275936</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9351834300197306</v>
+        <v>1.067544185668498</v>
       </c>
       <c r="D18">
-        <v>1.00931078163905</v>
+        <v>1.05636474316106</v>
       </c>
       <c r="E18">
-        <v>0.9630247595351663</v>
+        <v>1.069652526700597</v>
       </c>
       <c r="F18">
-        <v>0.984727218627608</v>
+        <v>1.074140599411534</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042571018643553</v>
+        <v>1.04282324618053</v>
       </c>
       <c r="J18">
-        <v>0.9649404021596917</v>
+        <v>1.073445149609381</v>
       </c>
       <c r="K18">
-        <v>1.022970711219366</v>
+        <v>1.059620126108721</v>
       </c>
       <c r="L18">
-        <v>0.9775137897375588</v>
+        <v>1.072864722237405</v>
       </c>
       <c r="M18">
-        <v>0.998814892768947</v>
+        <v>1.077338472162476</v>
       </c>
       <c r="N18">
-        <v>0.9663107282109696</v>
+        <v>1.074969564847706</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9366019393269239</v>
+        <v>1.067742273614927</v>
       </c>
       <c r="D19">
-        <v>1.009965273455631</v>
+        <v>1.056455279774017</v>
       </c>
       <c r="E19">
-        <v>0.9641863556514791</v>
+        <v>1.069818313168551</v>
       </c>
       <c r="F19">
-        <v>0.9857545184403018</v>
+        <v>1.074286556041396</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042867868448736</v>
+        <v>1.04285312642632</v>
       </c>
       <c r="J19">
-        <v>0.9661440639725771</v>
+        <v>1.073616066622906</v>
       </c>
       <c r="K19">
-        <v>1.023550549218834</v>
+        <v>1.059696372652829</v>
       </c>
       <c r="L19">
-        <v>0.9785852623119763</v>
+        <v>1.073016183113277</v>
       </c>
       <c r="M19">
-        <v>0.9997578717387271</v>
+        <v>1.07747023580927</v>
       </c>
       <c r="N19">
-        <v>0.9675160993616915</v>
+        <v>1.075140724582995</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9301795428012551</v>
+        <v>1.066855748508285</v>
       </c>
       <c r="D20">
-        <v>1.007006494483625</v>
+        <v>1.056049985670309</v>
       </c>
       <c r="E20">
-        <v>0.9589296361736865</v>
+        <v>1.069076316513314</v>
       </c>
       <c r="F20">
-        <v>0.9811071432422241</v>
+        <v>1.07363326558126</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041523836559611</v>
+        <v>1.042719182437983</v>
       </c>
       <c r="J20">
-        <v>0.9606951187780262</v>
+        <v>1.072851067913129</v>
       </c>
       <c r="K20">
-        <v>1.02092725188955</v>
+        <v>1.05935494301374</v>
       </c>
       <c r="L20">
-        <v>0.973735261897159</v>
+        <v>1.072338227960012</v>
       </c>
       <c r="M20">
-        <v>0.9954905399631988</v>
+        <v>1.076880388651362</v>
       </c>
       <c r="N20">
-        <v>0.9620594160399611</v>
+        <v>1.074374639487303</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9077371900406453</v>
+        <v>1.063962296353393</v>
       </c>
       <c r="D21">
-        <v>0.9967633916261308</v>
+        <v>1.054725353679612</v>
       </c>
       <c r="E21">
-        <v>0.9406139222986788</v>
+        <v>1.066653990533724</v>
       </c>
       <c r="F21">
-        <v>0.964949057191278</v>
+        <v>1.071499757348233</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03683241437822</v>
+        <v>1.042278195418938</v>
       </c>
       <c r="J21">
-        <v>0.941671793822304</v>
+        <v>1.070352944584698</v>
       </c>
       <c r="K21">
-        <v>1.011806343088997</v>
+        <v>1.058237169575474</v>
       </c>
       <c r="L21">
-        <v>0.9568150487633096</v>
+        <v>1.070123661678363</v>
       </c>
       <c r="M21">
-        <v>0.9806263643302731</v>
+        <v>1.074952603119741</v>
       </c>
       <c r="N21">
-        <v>0.9430090757807961</v>
+        <v>1.071872968537207</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8921480023202111</v>
+        <v>1.062134147428969</v>
       </c>
       <c r="D22">
-        <v>0.9897443424716457</v>
+        <v>1.05388705372387</v>
       </c>
       <c r="E22">
-        <v>0.9279448515894713</v>
+        <v>1.065123071293116</v>
       </c>
       <c r="F22">
-        <v>0.9538074637695262</v>
+        <v>1.070150792777126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033586097625566</v>
+        <v>1.041996652334007</v>
       </c>
       <c r="J22">
-        <v>0.9284778618649093</v>
+        <v>1.068773573040693</v>
       </c>
       <c r="K22">
-        <v>1.005521740929468</v>
+        <v>1.057528342492978</v>
       </c>
       <c r="L22">
-        <v>0.9450929232609417</v>
+        <v>1.068723039579826</v>
       </c>
       <c r="M22">
-        <v>0.9703531144224142</v>
+        <v>1.073732581897352</v>
       </c>
       <c r="N22">
-        <v>0.9297964069266569</v>
+        <v>1.070291354104453</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9005743163147604</v>
+        <v>1.063104147616472</v>
       </c>
       <c r="D23">
-        <v>0.9935279678306335</v>
+        <v>1.054331975629761</v>
       </c>
       <c r="E23">
-        <v>0.9347869847069175</v>
+        <v>1.065935404651925</v>
       </c>
       <c r="F23">
-        <v>0.9598208549325797</v>
+        <v>1.070866631621964</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035339036048051</v>
+        <v>1.042146311960734</v>
       </c>
       <c r="J23">
-        <v>0.9356071288105968</v>
+        <v>1.069611668408284</v>
       </c>
       <c r="K23">
-        <v>1.008912923920483</v>
+        <v>1.057904683809356</v>
       </c>
       <c r="L23">
-        <v>0.9514254260938029</v>
+        <v>1.069466330433228</v>
       </c>
       <c r="M23">
-        <v>0.9759002047338182</v>
+        <v>1.074380102988947</v>
       </c>
       <c r="N23">
-        <v>0.9369357982491455</v>
+        <v>1.071130639663597</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9305349038358256</v>
+        <v>1.066904110434911</v>
       </c>
       <c r="D24">
-        <v>1.007169904584868</v>
+        <v>1.05607210233401</v>
       </c>
       <c r="E24">
-        <v>0.9592203299803557</v>
+        <v>1.069116796331371</v>
       </c>
       <c r="F24">
-        <v>0.9813640321643146</v>
+        <v>1.073668908952051</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041598202231117</v>
+        <v>1.042726503779344</v>
       </c>
       <c r="J24">
-        <v>0.9609965675885852</v>
+        <v>1.072892805246269</v>
       </c>
       <c r="K24">
-        <v>1.021072267830628</v>
+        <v>1.059373581657092</v>
       </c>
       <c r="L24">
-        <v>0.9740035394108034</v>
+        <v>1.072375218900884</v>
       </c>
       <c r="M24">
-        <v>0.9957265158017131</v>
+        <v>1.076912576091571</v>
       </c>
       <c r="N24">
-        <v>0.9623612929424079</v>
+        <v>1.074416436092243</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9604894515875848</v>
+        <v>1.071276717177784</v>
       </c>
       <c r="D25">
-        <v>1.021064753251893</v>
+        <v>1.058068329314693</v>
       </c>
       <c r="E25">
-        <v>0.9837909448291645</v>
+        <v>1.072775641432909</v>
       </c>
       <c r="F25">
-        <v>1.003120039185337</v>
+        <v>1.076889153594314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0478599215802</v>
+        <v>1.043381445764482</v>
       </c>
       <c r="J25">
-        <v>0.9864238037023757</v>
+        <v>1.076664045881138</v>
       </c>
       <c r="K25">
-        <v>1.033344635551356</v>
+        <v>1.061052481662123</v>
       </c>
       <c r="L25">
-        <v>0.9966462074111543</v>
+        <v>1.075716327728774</v>
       </c>
       <c r="M25">
-        <v>1.015670112878878</v>
+        <v>1.079817913793059</v>
       </c>
       <c r="N25">
-        <v>0.9878246386480247</v>
+        <v>1.078193032321382</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_220/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.07473634099485</v>
+        <v>0.981672038399363</v>
       </c>
       <c r="D2">
-        <v>1.059642570943496</v>
+        <v>1.031014209819315</v>
       </c>
       <c r="E2">
-        <v>1.075668860352172</v>
+        <v>1.001236241847395</v>
       </c>
       <c r="F2">
-        <v>1.079433369458358</v>
+        <v>1.018609686365961</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043889337377061</v>
+        <v>1.052258637599545</v>
       </c>
       <c r="J2">
-        <v>1.079644324198238</v>
+        <v>1.004415104589305</v>
       </c>
       <c r="K2">
-        <v>1.062371517543477</v>
+        <v>1.042057736719664</v>
       </c>
       <c r="L2">
-        <v>1.078354821011359</v>
+        <v>1.012678380684371</v>
       </c>
       <c r="M2">
-        <v>1.082109432903752</v>
+        <v>1.029815706633272</v>
       </c>
       <c r="N2">
-        <v>1.081177542975535</v>
+        <v>1.005841489245845</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.077233049860598</v>
+        <v>0.9958571014821991</v>
       </c>
       <c r="D3">
-        <v>1.060775531630486</v>
+        <v>1.037721211401448</v>
       </c>
       <c r="E3">
-        <v>1.077755799784539</v>
+        <v>1.01294502888376</v>
       </c>
       <c r="F3">
-        <v>1.081267253775401</v>
+        <v>1.029020428679353</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044249853149942</v>
+        <v>1.055176323826713</v>
       </c>
       <c r="J3">
-        <v>1.081793032674017</v>
+        <v>1.016461346796239</v>
       </c>
       <c r="K3">
-        <v>1.063317941899768</v>
+        <v>1.047893161840301</v>
       </c>
       <c r="L3">
-        <v>1.080256013301498</v>
+        <v>1.023414912241577</v>
       </c>
       <c r="M3">
-        <v>1.083758918997577</v>
+        <v>1.039294979315954</v>
       </c>
       <c r="N3">
-        <v>1.083329302863809</v>
+        <v>1.017904838498436</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.078841814042535</v>
+        <v>1.004572719833892</v>
       </c>
       <c r="D4">
-        <v>1.061504074847248</v>
+        <v>1.041855827471951</v>
       </c>
       <c r="E4">
-        <v>1.079100045852951</v>
+        <v>1.020148005131935</v>
       </c>
       <c r="F4">
-        <v>1.082447878520908</v>
+        <v>1.035429079621724</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044479355618377</v>
+        <v>1.056953302875594</v>
       </c>
       <c r="J4">
-        <v>1.083176597561029</v>
+        <v>1.023860173871333</v>
       </c>
       <c r="K4">
-        <v>1.063925208420019</v>
+        <v>1.051474029890673</v>
       </c>
       <c r="L4">
-        <v>1.081479688384748</v>
+        <v>1.030009194077203</v>
       </c>
       <c r="M4">
-        <v>1.084819790652232</v>
+        <v>1.045117914299215</v>
       </c>
       <c r="N4">
-        <v>1.084714832571658</v>
+        <v>1.025314172756633</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.079516559801748</v>
+        <v>1.008136876418066</v>
       </c>
       <c r="D5">
-        <v>1.061809278131501</v>
+        <v>1.043549066684335</v>
       </c>
       <c r="E5">
-        <v>1.079663730452072</v>
+        <v>1.023095290832575</v>
       </c>
       <c r="F5">
-        <v>1.082942800105047</v>
+        <v>1.038052040861999</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044574941160556</v>
+        <v>1.057675848406642</v>
       </c>
       <c r="J5">
-        <v>1.08375665883538</v>
+        <v>1.026884980011563</v>
       </c>
       <c r="K5">
-        <v>1.064179288725443</v>
+        <v>1.052936683878563</v>
       </c>
       <c r="L5">
-        <v>1.081992592091469</v>
+        <v>1.032704924570186</v>
       </c>
       <c r="M5">
-        <v>1.085264262401969</v>
+        <v>1.047498272273052</v>
       </c>
       <c r="N5">
-        <v>1.085295717599552</v>
+        <v>1.028343274468532</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0796297612447</v>
+        <v>1.008729742648818</v>
       </c>
       <c r="D6">
-        <v>1.061860460422447</v>
+        <v>1.043830842741829</v>
       </c>
       <c r="E6">
-        <v>1.079758292331404</v>
+        <v>1.02358563564197</v>
       </c>
       <c r="F6">
-        <v>1.083025817573232</v>
+        <v>1.038488459805492</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044590937963787</v>
+        <v>1.057795784690095</v>
       </c>
       <c r="J6">
-        <v>1.083853961536873</v>
+        <v>1.027388073249099</v>
       </c>
       <c r="K6">
-        <v>1.064221879120111</v>
+        <v>1.053179866984585</v>
       </c>
       <c r="L6">
-        <v>1.08207862213761</v>
+        <v>1.033153272276242</v>
       </c>
       <c r="M6">
-        <v>1.085338802884009</v>
+        <v>1.047894158443028</v>
       </c>
       <c r="N6">
-        <v>1.085393158482042</v>
+        <v>1.028847082156171</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.078850836174277</v>
+        <v>1.004620723584763</v>
       </c>
       <c r="D7">
-        <v>1.061508157197361</v>
+        <v>1.041878624197487</v>
       </c>
       <c r="E7">
-        <v>1.0791075834325</v>
+        <v>1.020187694289844</v>
       </c>
       <c r="F7">
-        <v>1.082454497201581</v>
+        <v>1.035464398941373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044480636353989</v>
+        <v>1.056963051323462</v>
       </c>
       <c r="J7">
-        <v>1.08318435456404</v>
+        <v>1.023900917100538</v>
       </c>
       <c r="K7">
-        <v>1.063928608206402</v>
+        <v>1.051493737129017</v>
       </c>
       <c r="L7">
-        <v>1.081486547794827</v>
+        <v>1.030045505550628</v>
       </c>
       <c r="M7">
-        <v>1.084825735636799</v>
+        <v>1.045149978204725</v>
       </c>
       <c r="N7">
-        <v>1.084722600590503</v>
+        <v>1.025354973845898</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.075581543916737</v>
+        <v>0.986569038060191</v>
       </c>
       <c r="D8">
-        <v>1.060026413168421</v>
+        <v>1.033326113845179</v>
       </c>
       <c r="E8">
-        <v>1.076375444096447</v>
+        <v>1.00527620287733</v>
       </c>
       <c r="F8">
-        <v>1.080054403167011</v>
+        <v>1.022200664016312</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044011961049037</v>
+        <v>1.053269011993354</v>
       </c>
       <c r="J8">
-        <v>1.080371919236226</v>
+        <v>1.008574149603704</v>
       </c>
       <c r="K8">
-        <v>1.062692437712303</v>
+        <v>1.044072818483426</v>
       </c>
       <c r="L8">
-        <v>1.078998708241241</v>
+        <v>1.016385175830425</v>
       </c>
       <c r="M8">
-        <v>1.082668237572608</v>
+        <v>1.033088081298201</v>
       </c>
       <c r="N8">
-        <v>1.081906171281933</v>
+        <v>1.010006440581213</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069766811359472</v>
+        <v>0.9505958289337648</v>
       </c>
       <c r="D9">
-        <v>1.0573798006875</v>
+        <v>1.01645052286009</v>
       </c>
       <c r="E9">
-        <v>1.071512459317589</v>
+        <v>0.9756616323422783</v>
       </c>
       <c r="F9">
-        <v>1.075777726862135</v>
+        <v>0.9959132064661089</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043156882452229</v>
+        <v>1.045794681560517</v>
       </c>
       <c r="J9">
-        <v>1.075362345996952</v>
+        <v>0.9780224698982493</v>
       </c>
       <c r="K9">
-        <v>1.060474176639483</v>
+        <v>1.029282223257186</v>
       </c>
       <c r="L9">
-        <v>1.074563382491026</v>
+        <v>0.989162323731137</v>
       </c>
       <c r="M9">
-        <v>1.078815780375082</v>
+        <v>1.009072938875173</v>
       </c>
       <c r="N9">
-        <v>1.076889483874053</v>
+        <v>0.9794113739862499</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.065851387349169</v>
+        <v>0.9226615040010068</v>
       </c>
       <c r="D10">
-        <v>1.055590497202012</v>
+        <v>1.003557988854084</v>
       </c>
       <c r="E10">
-        <v>1.068235590441052</v>
+        <v>0.9527844767930322</v>
       </c>
       <c r="F10">
-        <v>1.072892912344655</v>
+        <v>0.9756796956645591</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042566764339306</v>
+        <v>1.039950864209546</v>
       </c>
       <c r="J10">
-        <v>1.071984156179742</v>
+        <v>0.9543191539559641</v>
       </c>
       <c r="K10">
-        <v>1.058967531076202</v>
+        <v>1.0178632985005</v>
       </c>
       <c r="L10">
-        <v>1.071569835152038</v>
+        <v>0.9680619676009596</v>
       </c>
       <c r="M10">
-        <v>1.076211676280578</v>
+        <v>0.9905023974499789</v>
       </c>
       <c r="N10">
-        <v>1.073506496639818</v>
+        <v>0.9556743966165183</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.064146110568797</v>
+        <v>0.9092384590316228</v>
       </c>
       <c r="D11">
-        <v>1.054809584862449</v>
+        <v>0.9974436650384035</v>
       </c>
       <c r="E11">
-        <v>1.066807901029307</v>
+        <v>0.9418363982265003</v>
       </c>
       <c r="F11">
-        <v>1.071635350898484</v>
+        <v>0.9660257320310089</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042306380588758</v>
+        <v>1.037145733581443</v>
       </c>
       <c r="J11">
-        <v>1.070511702902213</v>
+        <v>0.9429433607407978</v>
       </c>
       <c r="K11">
-        <v>1.05830833070292</v>
+        <v>1.012413951649599</v>
       </c>
       <c r="L11">
-        <v>1.070264430157263</v>
+        <v>0.9579453827483193</v>
       </c>
       <c r="M11">
-        <v>1.075075187911283</v>
+        <v>0.9816181114100595</v>
       </c>
       <c r="N11">
-        <v>1.072031952309742</v>
+        <v>0.9442824484701651</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.063511157732891</v>
+        <v>0.9040039703040734</v>
       </c>
       <c r="D12">
-        <v>1.054518578750672</v>
+        <v>0.9950749740140328</v>
       </c>
       <c r="E12">
-        <v>1.066276230809535</v>
+        <v>0.9375757795756047</v>
       </c>
       <c r="F12">
-        <v>1.071166935971047</v>
+        <v>0.962274444790124</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042208923978909</v>
+        <v>1.036053745270948</v>
       </c>
       <c r="J12">
-        <v>1.069963268186401</v>
+        <v>0.9385104743981509</v>
       </c>
       <c r="K12">
-        <v>1.058062432261704</v>
+        <v>1.010297141951178</v>
       </c>
       <c r="L12">
-        <v>1.069778124642323</v>
+        <v>0.9540053052846599</v>
       </c>
       <c r="M12">
-        <v>1.074651675157162</v>
+        <v>0.9781619443280535</v>
       </c>
       <c r="N12">
-        <v>1.071482738753728</v>
+        <v>0.9398432669204524</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.063647427707205</v>
+        <v>0.9051390349666938</v>
       </c>
       <c r="D13">
-        <v>1.054581043422488</v>
+        <v>0.9955878376664109</v>
       </c>
       <c r="E13">
-        <v>1.0663903382495</v>
+        <v>0.9384992361001702</v>
       </c>
       <c r="F13">
-        <v>1.071267472004248</v>
+        <v>0.963087225032897</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042229862309993</v>
+        <v>1.036290421803264</v>
       </c>
       <c r="J13">
-        <v>1.070080977930289</v>
+        <v>0.9394715486549844</v>
       </c>
       <c r="K13">
-        <v>1.058115225769921</v>
+        <v>1.010755738875889</v>
       </c>
       <c r="L13">
-        <v>1.069882503749276</v>
+        <v>0.9548594281673943</v>
       </c>
       <c r="M13">
-        <v>1.074742582648968</v>
+        <v>0.9789109671268919</v>
       </c>
       <c r="N13">
-        <v>1.071600615658954</v>
+        <v>0.9408057060129676</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.064093656841718</v>
+        <v>0.9088111981633384</v>
       </c>
       <c r="D14">
-        <v>1.054785549505068</v>
+        <v>0.9972499843027057</v>
       </c>
       <c r="E14">
-        <v>1.0667639810568</v>
+        <v>0.9414884399597209</v>
       </c>
       <c r="F14">
-        <v>1.071596658317209</v>
+        <v>0.9657192462805761</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042298339910022</v>
+        <v>1.037056552696757</v>
       </c>
       <c r="J14">
-        <v>1.07046639998952</v>
+        <v>0.9425814570063447</v>
       </c>
       <c r="K14">
-        <v>1.058288026027574</v>
+        <v>1.012240986122951</v>
       </c>
       <c r="L14">
-        <v>1.070224261198403</v>
+        <v>0.9576236653079816</v>
       </c>
       <c r="M14">
-        <v>1.075040208370101</v>
+        <v>0.9813358195755321</v>
       </c>
       <c r="N14">
-        <v>1.071986585061717</v>
+        <v>0.9439200307908979</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.064368388026186</v>
+        <v>0.9110390096467997</v>
       </c>
       <c r="D15">
-        <v>1.054911427245048</v>
+        <v>0.9982605209125631</v>
       </c>
       <c r="E15">
-        <v>1.066994012831503</v>
+        <v>0.9433031174589659</v>
       </c>
       <c r="F15">
-        <v>1.071799307437777</v>
+        <v>0.9673178738156614</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042340433103899</v>
+        <v>1.037521643442328</v>
       </c>
       <c r="J15">
-        <v>1.070703671069286</v>
+        <v>0.9444686231655646</v>
       </c>
       <c r="K15">
-        <v>1.058394355324379</v>
+        <v>1.013143205481335</v>
       </c>
       <c r="L15">
-        <v>1.070434639844405</v>
+        <v>0.9593013673655955</v>
       </c>
       <c r="M15">
-        <v>1.075223402779557</v>
+        <v>0.9828080902142768</v>
       </c>
       <c r="N15">
-        <v>1.072224193093632</v>
+        <v>0.9458098769425247</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.065964348376961</v>
+        <v>0.923520587804295</v>
       </c>
       <c r="D16">
-        <v>1.055642192954474</v>
+        <v>1.003951203533253</v>
       </c>
       <c r="E16">
-        <v>1.068330152759896</v>
+        <v>0.9534862133169079</v>
       </c>
       <c r="F16">
-        <v>1.072976192152588</v>
+        <v>0.9762991702220302</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042583942060545</v>
+        <v>1.04013056442049</v>
       </c>
       <c r="J16">
-        <v>1.072081670271113</v>
+        <v>0.9550475812528127</v>
       </c>
       <c r="K16">
-        <v>1.059011134923024</v>
+        <v>1.018213013206981</v>
       </c>
       <c r="L16">
-        <v>1.07165627371353</v>
+        <v>0.9687100118094104</v>
       </c>
       <c r="M16">
-        <v>1.076286910984287</v>
+        <v>0.9910719741197355</v>
       </c>
       <c r="N16">
-        <v>1.073604149212384</v>
+        <v>0.9564038583636806</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.066962771309487</v>
+        <v>0.9309651482892366</v>
       </c>
       <c r="D17">
-        <v>1.056098927796623</v>
+        <v>1.007367797501255</v>
       </c>
       <c r="E17">
-        <v>1.069165896212902</v>
+        <v>0.9595723069748888</v>
       </c>
       <c r="F17">
-        <v>1.073712142026062</v>
+        <v>0.9816750949001652</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042735382022407</v>
+        <v>1.041688239487231</v>
       </c>
       <c r="J17">
-        <v>1.072943430020399</v>
+        <v>0.9613615472823063</v>
       </c>
       <c r="K17">
-        <v>1.059396187519398</v>
+        <v>1.021247864131114</v>
       </c>
       <c r="L17">
-        <v>1.072420086198921</v>
+        <v>0.9743283627331888</v>
       </c>
       <c r="M17">
-        <v>1.076951616496309</v>
+        <v>0.9960122405479447</v>
       </c>
       <c r="N17">
-        <v>1.07446713275936</v>
+        <v>0.9627267909491579</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.067544185668498</v>
+        <v>0.9351834300197311</v>
       </c>
       <c r="D18">
-        <v>1.05636474316106</v>
+        <v>1.00931078163905</v>
       </c>
       <c r="E18">
-        <v>1.069652526700597</v>
+        <v>0.963024759535167</v>
       </c>
       <c r="F18">
-        <v>1.074140599411534</v>
+        <v>0.9847272186276086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04282324618053</v>
+        <v>1.042571018643553</v>
       </c>
       <c r="J18">
-        <v>1.073445149609381</v>
+        <v>0.9649404021596923</v>
       </c>
       <c r="K18">
-        <v>1.059620126108721</v>
+        <v>1.022970711219366</v>
       </c>
       <c r="L18">
-        <v>1.072864722237405</v>
+        <v>0.9775137897375593</v>
       </c>
       <c r="M18">
-        <v>1.077338472162476</v>
+        <v>0.9988148927689474</v>
       </c>
       <c r="N18">
-        <v>1.074969564847706</v>
+        <v>0.9663107282109702</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.067742273614927</v>
+        <v>0.9366019393269235</v>
       </c>
       <c r="D19">
-        <v>1.056455279774017</v>
+        <v>1.009965273455631</v>
       </c>
       <c r="E19">
-        <v>1.069818313168551</v>
+        <v>0.964186355651479</v>
       </c>
       <c r="F19">
-        <v>1.074286556041396</v>
+        <v>0.9857545184403016</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04285312642632</v>
+        <v>1.042867868448736</v>
       </c>
       <c r="J19">
-        <v>1.073616066622906</v>
+        <v>0.966144063972577</v>
       </c>
       <c r="K19">
-        <v>1.059696372652829</v>
+        <v>1.023550549218834</v>
       </c>
       <c r="L19">
-        <v>1.073016183113277</v>
+        <v>0.9785852623119762</v>
       </c>
       <c r="M19">
-        <v>1.07747023580927</v>
+        <v>0.9997578717387271</v>
       </c>
       <c r="N19">
-        <v>1.075140724582995</v>
+        <v>0.9675160993616911</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.066855748508285</v>
+        <v>0.9301795428012524</v>
       </c>
       <c r="D20">
-        <v>1.056049985670309</v>
+        <v>1.007006494483623</v>
       </c>
       <c r="E20">
-        <v>1.069076316513314</v>
+        <v>0.9589296361736837</v>
       </c>
       <c r="F20">
-        <v>1.07363326558126</v>
+        <v>0.981107143242222</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042719182437983</v>
+        <v>1.04152383655961</v>
       </c>
       <c r="J20">
-        <v>1.072851067913129</v>
+        <v>0.9606951187780234</v>
       </c>
       <c r="K20">
-        <v>1.05935494301374</v>
+        <v>1.020927251889549</v>
       </c>
       <c r="L20">
-        <v>1.072338227960012</v>
+        <v>0.9737352618971562</v>
       </c>
       <c r="M20">
-        <v>1.076880388651362</v>
+        <v>0.9954905399631965</v>
       </c>
       <c r="N20">
-        <v>1.074374639487303</v>
+        <v>0.9620594160399585</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.063962296353393</v>
+        <v>0.9077371900406415</v>
       </c>
       <c r="D21">
-        <v>1.054725353679612</v>
+        <v>0.9967633916261296</v>
       </c>
       <c r="E21">
-        <v>1.066653990533724</v>
+        <v>0.9406139222986755</v>
       </c>
       <c r="F21">
-        <v>1.071499757348233</v>
+        <v>0.9649490571912752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042278195418938</v>
+        <v>1.036832414378219</v>
       </c>
       <c r="J21">
-        <v>1.070352944584698</v>
+        <v>0.9416717938223005</v>
       </c>
       <c r="K21">
-        <v>1.058237169575474</v>
+        <v>1.011806343088995</v>
       </c>
       <c r="L21">
-        <v>1.070123661678363</v>
+        <v>0.9568150487633065</v>
       </c>
       <c r="M21">
-        <v>1.074952603119741</v>
+        <v>0.9806263643302705</v>
       </c>
       <c r="N21">
-        <v>1.071872968537207</v>
+        <v>0.9430090757807927</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.062134147428969</v>
+        <v>0.8921480023202132</v>
       </c>
       <c r="D22">
-        <v>1.05388705372387</v>
+        <v>0.9897443424716471</v>
       </c>
       <c r="E22">
-        <v>1.065123071293116</v>
+        <v>0.9279448515894733</v>
       </c>
       <c r="F22">
-        <v>1.070150792777126</v>
+        <v>0.9538074637695275</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041996652334007</v>
+        <v>1.033586097625567</v>
       </c>
       <c r="J22">
-        <v>1.068773573040693</v>
+        <v>0.9284778618649112</v>
       </c>
       <c r="K22">
-        <v>1.057528342492978</v>
+        <v>1.005521740929469</v>
       </c>
       <c r="L22">
-        <v>1.068723039579826</v>
+        <v>0.9450929232609435</v>
       </c>
       <c r="M22">
-        <v>1.073732581897352</v>
+        <v>0.9703531144224157</v>
       </c>
       <c r="N22">
-        <v>1.070291354104453</v>
+        <v>0.9297964069266585</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.063104147616472</v>
+        <v>0.9005743163147594</v>
       </c>
       <c r="D23">
-        <v>1.054331975629761</v>
+        <v>0.9935279678306329</v>
       </c>
       <c r="E23">
-        <v>1.065935404651925</v>
+        <v>0.9347869847069167</v>
       </c>
       <c r="F23">
-        <v>1.070866631621964</v>
+        <v>0.9598208549325788</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042146311960734</v>
+        <v>1.035339036048051</v>
       </c>
       <c r="J23">
-        <v>1.069611668408284</v>
+        <v>0.935607128810596</v>
       </c>
       <c r="K23">
-        <v>1.057904683809356</v>
+        <v>1.008912923920482</v>
       </c>
       <c r="L23">
-        <v>1.069466330433228</v>
+        <v>0.9514254260938022</v>
       </c>
       <c r="M23">
-        <v>1.074380102988947</v>
+        <v>0.9759002047338173</v>
       </c>
       <c r="N23">
-        <v>1.071130639663597</v>
+        <v>0.9369357982491445</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.066904110434911</v>
+        <v>0.9305349038358262</v>
       </c>
       <c r="D24">
-        <v>1.05607210233401</v>
+        <v>1.007169904584868</v>
       </c>
       <c r="E24">
-        <v>1.069116796331371</v>
+        <v>0.9592203299803559</v>
       </c>
       <c r="F24">
-        <v>1.073668908952051</v>
+        <v>0.9813640321643148</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042726503779344</v>
+        <v>1.041598202231116</v>
       </c>
       <c r="J24">
-        <v>1.072892805246269</v>
+        <v>0.9609965675885858</v>
       </c>
       <c r="K24">
-        <v>1.059373581657092</v>
+        <v>1.021072267830627</v>
       </c>
       <c r="L24">
-        <v>1.072375218900884</v>
+        <v>0.9740035394108039</v>
       </c>
       <c r="M24">
-        <v>1.076912576091571</v>
+        <v>0.9957265158017133</v>
       </c>
       <c r="N24">
-        <v>1.074416436092243</v>
+        <v>0.9623612929424087</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.071276717177784</v>
+        <v>0.9604894515875858</v>
       </c>
       <c r="D25">
-        <v>1.058068329314693</v>
+        <v>1.021064753251894</v>
       </c>
       <c r="E25">
-        <v>1.072775641432909</v>
+        <v>0.9837909448291652</v>
       </c>
       <c r="F25">
-        <v>1.076889153594314</v>
+        <v>1.003120039185337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043381445764482</v>
+        <v>1.047859921580201</v>
       </c>
       <c r="J25">
-        <v>1.076664045881138</v>
+        <v>0.9864238037023765</v>
       </c>
       <c r="K25">
-        <v>1.061052481662123</v>
+        <v>1.033344635551357</v>
       </c>
       <c r="L25">
-        <v>1.075716327728774</v>
+        <v>0.9966462074111549</v>
       </c>
       <c r="M25">
-        <v>1.079817913793059</v>
+        <v>1.015670112878879</v>
       </c>
       <c r="N25">
-        <v>1.078193032321382</v>
+        <v>0.9878246386480257</v>
       </c>
     </row>
   </sheetData>
